--- a/Avance-1/DiagramaGrantt.xlsx
+++ b/Avance-1/DiagramaGrantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/pmorataya_estudiantec_cr/Documents/Documentos/GitHub/RepoRequeProyecto/Avance-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75ED74A3-CFA4-4604-8ABF-67504E02FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{75ED74A3-CFA4-4604-8ABF-67504E02FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA48E675-3600-492E-9EF3-5CDF45644A65}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{519E65F0-B4BB-4297-9299-B1210B575100}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{519E65F0-B4BB-4297-9299-B1210B575100}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,12 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +354,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CR"/>
-              <a:t>Diagrama Grantt</a:t>
+              <a:t>Diagrama Gantt</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF00CE-E5E5-4135-B83A-1CCA4521DCF2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,36 +1650,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>45331</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>45341</v>
       </c>
     </row>
@@ -1692,12 +1692,12 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1708,12 +1708,12 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1724,12 +1724,12 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1740,12 +1740,12 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1756,12 +1756,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1772,27 +1772,27 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>45331</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
